--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_25_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_25_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>882359.7855138611</v>
+        <v>913418.5637610762</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2936234.333094787</v>
+        <v>2962731.063294502</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19531304.28312725</v>
+        <v>19557809.19380879</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6139655.103829865</v>
+        <v>6131791.906567112</v>
       </c>
     </row>
     <row r="11">
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.632694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>32.78366918850629</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.62009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>11.83563415094341</v>
@@ -9322,13 +9324,13 @@
         <v>8.745422743908065</v>
       </c>
       <c r="K19" t="n">
-        <v>27.75337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>42.24342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.41251183645587</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>44.67260637956007</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>17.08626916697543</v>
@@ -10425,10 +10427,10 @@
         <v>2.632694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.62009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>11.83563415094341</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>62.28773471909744</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10823,7 +10825,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.20189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>17.08626916697543</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>55.20189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>17.08626916697543</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>35.83310349479973</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.08626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11458,19 +11460,19 @@
         <v>27.75337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>42.24342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.41251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>44.67260637956007</v>
       </c>
       <c r="O46" t="n">
         <v>42.39083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>35.10170646165069</v>
       </c>
       <c r="Q46" t="n">
         <v>16.98916917821538</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.34542175517434</v>
+        <v>22.38652970403251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.20985652598359</v>
+        <v>22.20985652598358</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23279,10 +23281,10 @@
         <v>233.6650823796813</v>
       </c>
       <c r="J11" t="n">
-        <v>101.9447284737456</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K11" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>42.0461076913395</v>
@@ -23519,7 +23521,7 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K14" t="n">
-        <v>77.83409231047494</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>42.0461076913395</v>
@@ -23531,13 +23533,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.26380076792782</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P14" t="n">
         <v>62.28773471909744</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.73788191118646</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R14" t="n">
         <v>177.6911867688939</v>
@@ -23619,7 +23621,7 @@
         <v>19.06924187859266</v>
       </c>
       <c r="R15" t="n">
-        <v>137.4865345694365</v>
+        <v>137.4865345694366</v>
       </c>
       <c r="S15" t="n">
         <v>202.9648742847568</v>
@@ -23756,7 +23758,7 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K17" t="n">
-        <v>77.83409231047497</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>42.0461076913395</v>
@@ -23829,7 +23831,7 @@
         <v>135.1206313132817</v>
       </c>
       <c r="I18" t="n">
-        <v>110.2086769395097</v>
+        <v>107.5759826808776</v>
       </c>
       <c r="J18" t="n">
         <v>55.7330047947075</v>
@@ -23853,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.06924187859266</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R18" t="n">
         <v>137.4865345694366</v>
@@ -23914,13 +23916,13 @@
         <v>116.1411408797722</v>
       </c>
       <c r="K19" t="n">
-        <v>60.94273351249801</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L19" t="n">
-        <v>27.07804559905455</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M19" t="n">
-        <v>21.86388394779328</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N19" t="n">
         <v>10.37262059349192</v>
@@ -23990,10 +23992,10 @@
         <v>233.6650823796813</v>
       </c>
       <c r="J20" t="n">
-        <v>101.9447284737456</v>
+        <v>57.97960852900644</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L20" t="n">
         <v>42.0461076913395</v>
@@ -24072,7 +24074,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24309,7 +24311,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24467,7 +24469,7 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L26" t="n">
         <v>42.0461076913395</v>
@@ -24941,7 +24943,7 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L32" t="n">
         <v>42.0461076913395</v>
@@ -24959,7 +24961,7 @@
         <v>62.28773471909744</v>
       </c>
       <c r="Q32" t="n">
-        <v>117.9397794827617</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R32" t="n">
         <v>177.6911867688939</v>
@@ -25017,10 +25019,10 @@
         <v>107.5759826808776</v>
       </c>
       <c r="J33" t="n">
-        <v>88.51667398321378</v>
+        <v>55.7330047947075</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.06924187859266</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R33" t="n">
         <v>137.4865345694366</v>
@@ -25193,7 +25195,7 @@
         <v>13.26380076792788</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q35" t="n">
         <v>62.73788191118649</v>
@@ -25415,7 +25417,7 @@
         <v>57.97960852900644</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L38" t="n">
         <v>42.0461076913395</v>
@@ -25433,7 +25435,7 @@
         <v>62.28773471909744</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.73788191118649</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R38" t="n">
         <v>177.6911867688939</v>
@@ -25494,7 +25496,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>62.28773471909744</v>
       </c>
       <c r="Q41" t="n">
-        <v>117.9397794827617</v>
+        <v>62.73788191118649</v>
       </c>
       <c r="R41" t="n">
         <v>177.6911867688939</v>
@@ -25731,7 +25733,7 @@
         <v>55.7330047947075</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>117.9397794827617</v>
       </c>
       <c r="R44" t="n">
-        <v>177.6911867688939</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S44" t="n">
         <v>223.6706915517236</v>
@@ -26050,19 +26052,19 @@
         <v>60.94273351249801</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3214679998587</v>
+        <v>27.07804559905455</v>
       </c>
       <c r="M46" t="n">
-        <v>68.27639578424916</v>
+        <v>21.86388394779328</v>
       </c>
       <c r="N46" t="n">
-        <v>55.045226973052</v>
+        <v>10.37262059349192</v>
       </c>
       <c r="O46" t="n">
         <v>38.4603154473067</v>
       </c>
       <c r="P46" t="n">
-        <v>97.34185526750879</v>
+        <v>62.24014880585811</v>
       </c>
       <c r="Q46" t="n">
         <v>132.5235940754596</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1069905.102081175</v>
+        <v>1069901.420864355</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>336318.2749526792</v>
+        <v>353284.9052198305</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356202.4126035195</v>
+        <v>367044.7016623687</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>353348.2504102149</v>
+        <v>355443.883181606</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>360920.3604540665</v>
+        <v>353543.5963242053</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>340008.3297685372</v>
+        <v>337349.5134892231</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>356826.9761262768</v>
+        <v>345984.6870674277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>356922.5290768611</v>
+        <v>349490.7852892054</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>373062.5668294247</v>
+        <v>364385.8853830545</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367044.7016623687</v>
+        <v>345853.9719924849</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>342388.4470634969</v>
+        <v>347419.2551159033</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332655.560406887</v>
+        <v>337349.5134892231</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594391.7233784304</v>
+        <v>594389.6782579747</v>
       </c>
       <c r="C2" t="n">
         <v>594398.4677485826</v>
       </c>
       <c r="D2" t="n">
-        <v>594406.0775322418</v>
+        <v>594406.0775322419</v>
       </c>
       <c r="E2" t="n">
-        <v>183345.7378936594</v>
+        <v>189405.2487033564</v>
       </c>
       <c r="F2" t="n">
-        <v>190447.2156261025</v>
+        <v>194319.4617185486</v>
       </c>
       <c r="G2" t="n">
-        <v>189427.8719856365</v>
+        <v>190176.3122611334</v>
       </c>
       <c r="H2" t="n">
-        <v>192132.1970012978</v>
+        <v>189497.6383834903</v>
       </c>
       <c r="I2" t="n">
-        <v>184663.6146136088</v>
+        <v>183714.0373709966</v>
       </c>
       <c r="J2" t="n">
-        <v>190670.2740270872</v>
+        <v>186798.0279346411</v>
       </c>
       <c r="K2" t="n">
         <v>186798.0279346411</v>
       </c>
       <c r="L2" t="n">
-        <v>190704.4000808673</v>
+        <v>188050.2058709903</v>
       </c>
       <c r="M2" t="n">
-        <v>196468.6992782114</v>
+        <v>193369.8844759364</v>
       </c>
       <c r="N2" t="n">
-        <v>194319.4617185485</v>
+        <v>186751.3439793044</v>
       </c>
       <c r="O2" t="n">
-        <v>185513.6565046658</v>
+        <v>187310.3736662395</v>
       </c>
       <c r="P2" t="n">
-        <v>182037.6255558765</v>
+        <v>183714.0373709966</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298376.9404075524</v>
+        <v>288523.4171191893</v>
       </c>
       <c r="C3" t="n">
-        <v>30707.18474684975</v>
+        <v>40018.63863282887</v>
       </c>
       <c r="D3" t="n">
         <v>32585.62631485736</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>434832.4160717978</v>
+        <v>438396.5295836807</v>
       </c>
       <c r="C4" t="n">
-        <v>423078.7314798641</v>
+        <v>423078.7314798642</v>
       </c>
       <c r="D4" t="n">
         <v>410331.9762394427</v>
       </c>
       <c r="E4" t="n">
-        <v>6295.946744092063</v>
+        <v>12355.45755378897</v>
       </c>
       <c r="F4" t="n">
-        <v>13397.42447653503</v>
+        <v>17269.67056898116</v>
       </c>
       <c r="G4" t="n">
-        <v>12378.08083606909</v>
+        <v>13126.52111156592</v>
       </c>
       <c r="H4" t="n">
-        <v>15082.40585173039</v>
+        <v>12447.84723392284</v>
       </c>
       <c r="I4" t="n">
-        <v>7613.823464041361</v>
+        <v>6664.246221429168</v>
       </c>
       <c r="J4" t="n">
-        <v>13620.4828775198</v>
+        <v>9748.23678507367</v>
       </c>
       <c r="K4" t="n">
-        <v>9748.236785073668</v>
+        <v>9748.23678507367</v>
       </c>
       <c r="L4" t="n">
-        <v>13654.60893129988</v>
+        <v>11000.41472142284</v>
       </c>
       <c r="M4" t="n">
-        <v>19418.90812864406</v>
+        <v>16320.09332636897</v>
       </c>
       <c r="N4" t="n">
-        <v>17269.67056898116</v>
+        <v>9701.552829736969</v>
       </c>
       <c r="O4" t="n">
-        <v>8463.865355098389</v>
+        <v>10260.58251667206</v>
       </c>
       <c r="P4" t="n">
-        <v>4987.834406309134</v>
+        <v>6664.246221429168</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40377.83821895786</v>
+        <v>40154.92008928722</v>
       </c>
       <c r="C5" t="n">
         <v>41112.97456555201</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-179195.4713198777</v>
+        <v>-172685.1885341826</v>
       </c>
       <c r="C6" t="n">
-        <v>99499.57695631679</v>
+        <v>90188.12307033759</v>
       </c>
       <c r="D6" t="n">
-        <v>109546.0339935036</v>
+        <v>109546.0339935039</v>
       </c>
       <c r="E6" t="n">
-        <v>89659.30818125032</v>
+        <v>89659.30818125037</v>
       </c>
       <c r="F6" t="n">
         <v>166645.9502520794</v>
@@ -26552,13 +26554,13 @@
         <v>166645.9502520794</v>
       </c>
       <c r="M6" t="n">
-        <v>166645.9502520793</v>
+        <v>166645.9502520794</v>
       </c>
       <c r="N6" t="n">
-        <v>166645.9502520793</v>
+        <v>166645.9502520794</v>
       </c>
       <c r="O6" t="n">
-        <v>166645.9502520793</v>
+        <v>166645.9502520794</v>
       </c>
       <c r="P6" t="n">
         <v>166645.9502520794</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.643954998067</v>
+        <v>299.4183527195973</v>
       </c>
       <c r="C3" t="n">
         <v>343.3658057592666</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.643954998067</v>
+        <v>299.4183527195973</v>
       </c>
       <c r="C3" t="n">
-        <v>33.72185076119946</v>
+        <v>43.94745303966922</v>
       </c>
       <c r="D3" t="n">
         <v>38.04891829752592</v>
@@ -27394,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>351.3481224293901</v>
+        <v>351.7691192106338</v>
       </c>
       <c r="I2" t="n">
-        <v>259.6400060372415</v>
+        <v>261.2248202355961</v>
       </c>
       <c r="J2" t="n">
-        <v>159.1288067249834</v>
+        <v>162.6177924993845</v>
       </c>
       <c r="K2" t="n">
-        <v>163.5382021660062</v>
+        <v>168.7672874155736</v>
       </c>
       <c r="L2" t="n">
-        <v>148.369634442923</v>
+        <v>154.8567770823587</v>
       </c>
       <c r="M2" t="n">
-        <v>118.3054098615021</v>
+        <v>125.5236059864442</v>
       </c>
       <c r="N2" t="n">
-        <v>113.403861790647</v>
+        <v>120.7388558752824</v>
       </c>
       <c r="O2" t="n">
-        <v>126.783868685903</v>
+        <v>133.71009560408</v>
       </c>
       <c r="P2" t="n">
-        <v>159.1744863074956</v>
+        <v>165.0858607382365</v>
       </c>
       <c r="Q2" t="n">
-        <v>190.6976949778748</v>
+        <v>195.1368909901325</v>
       </c>
       <c r="R2" t="n">
-        <v>237.1001924174001</v>
+        <v>239.6824396098621</v>
       </c>
       <c r="S2" t="n">
-        <v>239.023874168847</v>
+        <v>239.9606215534526</v>
       </c>
       <c r="T2" t="n">
-        <v>220.0652871587282</v>
+        <v>220.2452372048549</v>
       </c>
       <c r="U2" t="n">
-        <v>248.802021551213</v>
+        <v>248.8053101871216</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27470,49 +27472,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.10316926914</v>
+        <v>161.1251639608333</v>
       </c>
       <c r="H3" t="n">
-        <v>138.6022104625475</v>
+        <v>138.8146328796908</v>
       </c>
       <c r="I3" t="n">
-        <v>122.6203010638224</v>
+        <v>123.3775744401053</v>
       </c>
       <c r="J3" t="n">
-        <v>122.5751192394966</v>
+        <v>124.6531352647845</v>
       </c>
       <c r="K3" t="n">
-        <v>94.04441118713363</v>
+        <v>97.59607155587346</v>
       </c>
       <c r="L3" t="n">
-        <v>58.02328993580835</v>
+        <v>62.7989356036918</v>
       </c>
       <c r="M3" t="n">
-        <v>39.11506913700529</v>
+        <v>44.68802237877131</v>
       </c>
       <c r="N3" t="n">
-        <v>18.86483045555065</v>
+        <v>24.58528318678628</v>
       </c>
       <c r="O3" t="n">
-        <v>50.08233177565901</v>
+        <v>55.31542844358495</v>
       </c>
       <c r="P3" t="n">
-        <v>68.75569808208211</v>
+        <v>72.95571951604451</v>
       </c>
       <c r="Q3" t="n">
-        <v>119.7056307681297</v>
+        <v>122.5132338691918</v>
       </c>
       <c r="R3" t="n">
-        <v>171.7042007081215</v>
+        <v>173.0698009520273</v>
       </c>
       <c r="S3" t="n">
-        <v>209.6608269174274</v>
+        <v>210.0693686688361</v>
       </c>
       <c r="T3" t="n">
-        <v>230.4508145796053</v>
+        <v>230.5394686220007</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6553572949845</v>
+        <v>249.6568043141749</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27549,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.3083279378683</v>
+        <v>169.3267675485344</v>
       </c>
       <c r="H4" t="n">
-        <v>168.2350761893219</v>
+        <v>168.3990210914259</v>
       </c>
       <c r="I4" t="n">
-        <v>169.9593059339369</v>
+        <v>170.5138353165135</v>
       </c>
       <c r="J4" t="n">
-        <v>146.2537376580682</v>
+        <v>147.557418132161</v>
       </c>
       <c r="K4" t="n">
-        <v>123.8089434371081</v>
+        <v>125.9512909308596</v>
       </c>
       <c r="L4" t="n">
-        <v>114.2538023393702</v>
+        <v>116.9952695469455</v>
       </c>
       <c r="M4" t="n">
-        <v>115.6512423671155</v>
+        <v>118.5417351554377</v>
       </c>
       <c r="N4" t="n">
-        <v>101.2936055921664</v>
+        <v>104.1153689225513</v>
       </c>
       <c r="O4" t="n">
-        <v>123.5690118741816</v>
+        <v>126.1753670254217</v>
       </c>
       <c r="P4" t="n">
-        <v>133.894366949841</v>
+        <v>136.1245540434928</v>
       </c>
       <c r="Q4" t="n">
-        <v>174.8198276783564</v>
+        <v>176.3638936224054</v>
       </c>
       <c r="R4" t="n">
-        <v>224.3783589569401</v>
+        <v>225.2074709056173</v>
       </c>
       <c r="S4" t="n">
-        <v>244.9806909390472</v>
+        <v>245.3020430631099</v>
       </c>
       <c r="T4" t="n">
-        <v>218.4025917159888</v>
+        <v>218.4813791433803</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2236134344247</v>
+        <v>291.2246192313701</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.244799819087706</v>
+        <v>1.203691870229536</v>
       </c>
       <c r="H2" t="n">
-        <v>12.74830614723197</v>
+        <v>12.32730936598824</v>
       </c>
       <c r="I2" t="n">
-        <v>47.99014502537882</v>
+        <v>46.40533082702423</v>
       </c>
       <c r="J2" t="n">
-        <v>105.6508286452953</v>
+        <v>102.1618428708942</v>
       </c>
       <c r="K2" t="n">
-        <v>158.3432049872779</v>
+        <v>153.1141197377105</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4387474506833</v>
+        <v>189.9516048112476</v>
       </c>
       <c r="M2" t="n">
-        <v>218.5759562333843</v>
+        <v>211.3577601084422</v>
       </c>
       <c r="N2" t="n">
-        <v>222.1127437193672</v>
+        <v>214.7777496347318</v>
       </c>
       <c r="O2" t="n">
-        <v>209.7347655183138</v>
+        <v>202.8085386001369</v>
       </c>
       <c r="P2" t="n">
-        <v>179.0037699845861</v>
+        <v>173.0923955538452</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.4243764635076</v>
+        <v>129.9851804512499</v>
       </c>
       <c r="R2" t="n">
-        <v>78.19365663576816</v>
+        <v>75.61140944330616</v>
       </c>
       <c r="S2" t="n">
-        <v>28.36587587746113</v>
+        <v>27.42912849285558</v>
       </c>
       <c r="T2" t="n">
-        <v>5.449111208056435</v>
+        <v>5.269161161929796</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09958398552701644</v>
+        <v>0.09629534961836286</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6660266201845216</v>
+        <v>0.6440319284912093</v>
       </c>
       <c r="H3" t="n">
-        <v>6.432414989676828</v>
+        <v>6.219992572533522</v>
       </c>
       <c r="I3" t="n">
-        <v>22.93117968617761</v>
+        <v>22.17390630989471</v>
       </c>
       <c r="J3" t="n">
-        <v>62.92490976050343</v>
+        <v>60.84689373521553</v>
       </c>
       <c r="K3" t="n">
-        <v>107.5486933128664</v>
+        <v>103.9970329441265</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6124904922576</v>
+        <v>139.8368448243742</v>
       </c>
       <c r="M3" t="n">
-        <v>168.7559554739465</v>
+        <v>163.1830022321805</v>
       </c>
       <c r="N3" t="n">
-        <v>173.2224234663243</v>
+        <v>167.5019707350887</v>
       </c>
       <c r="O3" t="n">
-        <v>158.464675724341</v>
+        <v>153.231579056415</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1818727613759</v>
+        <v>122.9818513274135</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.01771383267683</v>
+        <v>82.21011073161472</v>
       </c>
       <c r="R3" t="n">
-        <v>41.35207383917584</v>
+        <v>39.98647359527001</v>
       </c>
       <c r="S3" t="n">
-        <v>12.3711523529888</v>
+        <v>11.96261060158013</v>
       </c>
       <c r="T3" t="n">
-        <v>2.684554666445505</v>
+        <v>2.595900624050093</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04381754080161328</v>
+        <v>0.04237052161126378</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5583743450784815</v>
+        <v>0.5399347344123885</v>
       </c>
       <c r="H4" t="n">
-        <v>4.964455540788684</v>
+        <v>4.800510638684694</v>
       </c>
       <c r="I4" t="n">
-        <v>16.79183939563288</v>
+        <v>16.2373100130562</v>
       </c>
       <c r="J4" t="n">
-        <v>39.47706619704864</v>
+        <v>38.17338572295586</v>
       </c>
       <c r="K4" t="n">
-        <v>64.87294663729993</v>
+        <v>62.7305991435484</v>
       </c>
       <c r="L4" t="n">
-        <v>83.0150367219408</v>
+        <v>80.27356951436548</v>
       </c>
       <c r="M4" t="n">
-        <v>87.52771665625687</v>
+        <v>84.63722386793467</v>
       </c>
       <c r="N4" t="n">
-        <v>85.44650318823714</v>
+        <v>82.62473985785221</v>
       </c>
       <c r="O4" t="n">
-        <v>78.92367561163849</v>
+        <v>76.31732046039836</v>
       </c>
       <c r="P4" t="n">
-        <v>67.53283897203741</v>
+        <v>65.30265187838557</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.75623720470812</v>
+        <v>45.21217126065919</v>
       </c>
       <c r="R4" t="n">
-        <v>25.10654100689244</v>
+        <v>24.27742905821521</v>
       </c>
       <c r="S4" t="n">
-        <v>9.730941995594987</v>
+        <v>9.409589871532258</v>
       </c>
       <c r="T4" t="n">
-        <v>2.385781292608057</v>
+        <v>2.306993865216568</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0304567824588263</v>
+        <v>0.02945098551340304</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32011,7 +32013,7 @@
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>323.2548334362891</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P14" t="n">
         <v>275.8905215729843</v>
@@ -32029,7 +32031,7 @@
         <v>8.398471906090791</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1534843523671646</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32099,7 +32101,7 @@
         <v>131.0340079108931</v>
       </c>
       <c r="R15" t="n">
-        <v>63.73410582691735</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S15" t="n">
         <v>19.06710498565942</v>
@@ -32187,7 +32189,7 @@
         <v>3.677098226665192</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04694167948934295</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
